--- a/biology/Botanique/Phyllostachys_viridiglaucescens/Phyllostachys_viridiglaucescens.xlsx
+++ b/biology/Botanique/Phyllostachys_viridiglaucescens/Phyllostachys_viridiglaucescens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phyllostachys viridiglaucescens est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Bambusoideae, originaire de Chine.
 Ce sont des bambous géants, traçant 4 à 7 m/an, dont les tiges (chaumes) peuvent atteindre 8 à 13 m de haut et 5 à 10 cm de diamètre.
@@ -516,6 +528,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -541,11 +555,13 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aire de répartition originelle de Phyllostachys viridiglaucescens se situe en Chine : provinces de Anhui, Fujian, Jiangsu, Zhejiang.
-La plante est cultivée principalement en Chine[2].
-L'espèce a été introduite dans certains pays, notamment en Amérique : Guatemala, Honduras, États-Unis[3].
+La plante est cultivée principalement en Chine.
+L'espèce a été introduite dans certains pays, notamment en Amérique : Guatemala, Honduras, États-Unis.
 </t>
         </is>
       </c>
@@ -574,51 +590,159 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce Phyllostachys viridiglaucescens a été décrite pour la première fois par Élie-Abel Carrière, botaniste et horticulteur français, et publiée en 1869 sous le nom de  Bambusa viridiglaucescens dans la Revue Horticole; résumé de tout ce qui parait d'intéressant en jardinage [etc.], 292, Paris[4].
-Le nom actuel, Phyllostachys viridiglaucescens, a été attribué (sous la forme viridi-glaucescens) par les frères Marie Auguste Rivière et Charles Marie Rivière, horticulteurs français, et publié en 1878 dans le Bulletin de la Société d'acclimatation de France, Paris, Sér. 3 5: 700, 773, f. 28[5].
-Étymologie
-Le nom générique « Phyllostachys », dérive de deux termes du grec ancien, φύλλον / phúllon, « feuille » et  στάχυς / stákhus, « épi », en référence aux lemmes des épillets qui ont un limbe bien développé[6]. 
-L'épithète spécifique « viridiglaucescens » est formé de deux racines latines, viridis, « vert » et glaucescens, de glaucesco, « devenir vert-bleuâtre », en référence à la couleur vert-olive foncé des chaumes de ce bambou[7].
-Synonymes
-Selon Catalogue of Life                                   (15 mai 2018)[8] :
-Bambusa viridiglaucesens Carrière (basionyme[9])
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Phyllostachys viridiglaucescens a été décrite pour la première fois par Élie-Abel Carrière, botaniste et horticulteur français, et publiée en 1869 sous le nom de  Bambusa viridiglaucescens dans la Revue Horticole; résumé de tout ce qui parait d'intéressant en jardinage [etc.], 292, Paris.
+Le nom actuel, Phyllostachys viridiglaucescens, a été attribué (sous la forme viridi-glaucescens) par les frères Marie Auguste Rivière et Charles Marie Rivière, horticulteurs français, et publié en 1878 dans le Bulletin de la Société d'acclimatation de France, Paris, Sér. 3 5: 700, 773, f. 28.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Phyllostachys_viridiglaucescens</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Phyllostachys_viridiglaucescens</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique « Phyllostachys », dérive de deux termes du grec ancien, φύλλον / phúllon, « feuille » et  στάχυς / stákhus, « épi », en référence aux lemmes des épillets qui ont un limbe bien développé. 
+L'épithète spécifique « viridiglaucescens » est formé de deux racines latines, viridis, « vert » et glaucescens, de glaucesco, « devenir vert-bleuâtre », en référence à la couleur vert-olive foncé des chaumes de ce bambou.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Phyllostachys_viridiglaucescens</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Phyllostachys_viridiglaucescens</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (15 mai 2018) :
+Bambusa viridiglaucesens Carrière (basionyme)
 Phyllostachys altiligulata G.G.Tang &amp; Y.L.Xuu
 Phyllostachys nigrivagina T.H.Wen
 Phyllostachys viridiglaucescens var. hinkulii (V.N.Vassil.) A.H.Lawson
-Phyllostachys viridiglaucescens f. hinkulii V.N.Vassil.
-Liste des variétés
-Selon Tropicos                                           (15 mai 2018)[9] :
+Phyllostachys viridiglaucescens f. hinkulii V.N.Vassil.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Phyllostachys_viridiglaucescens</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Phyllostachys_viridiglaucescens</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (15 mai 2018) :
 Phyllostachys viridiglaucescens var. hinkulii (V.N. Vassil.) A.H. Lawson</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Phyllostachys_viridiglaucescens</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Phyllostachys_viridiglaucescens</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Phyllostachys_viridiglaucescens</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Phyllostachys_viridiglaucescens</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Son principal intérêt en nos régions est ornemental et réside dans la coloration de ses chaumes qui, selon leur âge (de plantation), varient du vert très clair au vert foncé (à l'âge adulte).
 Ses jeunes pousses sont également comestibles et douces en goût.
@@ -627,31 +751,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Phyllostachys_viridiglaucescens</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Phyllostachys_viridiglaucescens</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Phyllostachys_viridiglaucescens</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Phyllostachys_viridiglaucescens</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa culture et sa multiplication sont simples et aisées à faire, même pour un novice.
 Elle se pratique par bouturage d'un morceau de rhizome avec ses racines. Le bambou doit avoir au minimum trois à quatre ans pour avoir le maximum de chance de réussite du bouturage. L'opération devra se faire avant la période d'apparition des turions, donc en France de préférence entre décembre et fin février.
